--- a/Documents and References/BuildingStockCompositionForecast_V5.xlsx
+++ b/Documents and References/BuildingStockCompositionForecast_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Spring-2023/IESVic-Coop/Building_Stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/940a138d5667ee1b/Documentos/UVic/Courses/UVIC-2023/Summer 2023/ECE 499/ECE-499-Building-and-Transportation-Demands/Documents and References/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0D9DEA9F-8727-4180-8C31-15E78CAAA863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CEE63D-F18E-4234-A4A1-72734D1ABAE8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A913C1F-CABE-4D8D-A8D9-11BF92F83314}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A913C1F-CABE-4D8D-A8D9-11BF92F83314}"/>
   </bookViews>
   <sheets>
     <sheet name="NRCanData" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <sheet name="2049" sheetId="39" r:id="rId35"/>
     <sheet name="2050" sheetId="40" r:id="rId36"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7190,10 +7190,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -29759,8 +29755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D614E6-1959-46EE-B91F-F00B3CD74257}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55033,7 +55029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AEC996-09CD-4481-9993-4C33B5957C42}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
